--- a/medicine/Premiers secours et secourisme/Fédération_française_de_sauvetage_et_de_secourisme/Fédération_française_de_sauvetage_et_de_secourisme.xlsx
+++ b/medicine/Premiers secours et secourisme/Fédération_française_de_sauvetage_et_de_secourisme/Fédération_française_de_sauvetage_et_de_secourisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_de_sauvetage_et_de_secourisme</t>
+          <t>Fédération_française_de_sauvetage_et_de_secourisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fédération française de sauvetage et de secourisme (FFSS), créée en 1899 par Raymond Pitet, est une association loi de 1901 agréée de sécurité civile et reconnue d’utilité publique depuis 1927. Forte d’un maillage départemental, régional et national, la FFSS intervient partout en France pour toutes les missions de sécurité civile et dispose de moyens humains et matériels pour venir secourir et porter assistance à la population. La FFSS organise de nombreuses formations et sensibilisations aux gestes et aux secours d’urgence en milieu terrestre et aquatique. Enfin, la FFSS est garante du projet éducatif de son fondateur : « participer et promouvoir l’esprit et le rôle des sauveteurs et secouristes dans la vie de tous les jours » par le biais de l’école nationale de sauvetage ou encore du « Sauvetage Tour » organisé chaque année sur les côtes françaises.
 Elle développe partout où elle le peut les sentiments du devoir et l'éducation morale. Elle perfectionne les techniques et les engins de sauvetage. Elle organise de nombreuses épreuves. Elle prépare les bénévoles aux diplômes fédéraux et d'État sur tout le territoire national.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_de_sauvetage_et_de_secourisme</t>
+          <t>Fédération_française_de_sauvetage_et_de_secourisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_de_sauvetage_et_de_secourisme</t>
+          <t>Fédération_française_de_sauvetage_et_de_secourisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Formations des agents opérationnels en terrestre et nautique
 Sensibiliser le public aux gestes d'urgence
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_de_sauvetage_et_de_secourisme</t>
+          <t>Fédération_française_de_sauvetage_et_de_secourisme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La fédération française de sauvetage et de secourisme compte :
 73 150 licenciés ;
